--- a/Bierlisten/PayPal_Liste.xlsx
+++ b/Bierlisten/PayPal_Liste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Projekte\Python\Bierliste_K3.1\Bierlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8920A1B1-57F2-4B6B-82DC-5DC74003AC03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30309F4-D9BA-4CCA-99C6-A47F009F5D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,16 +36,16 @@
     <t>Betrag</t>
   </si>
   <si>
-    <t>Übertragen</t>
-  </si>
-  <si>
     <t>Pato Steinberg</t>
   </si>
   <si>
-    <t>WG</t>
-  </si>
-  <si>
-    <t>Nein</t>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Eingezahlt</t>
+  </si>
+  <si>
+    <t>HMW</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A2:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,21 +401,21 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
